--- a/biology/Botanique/Polygonum/Polygonum.xlsx
+++ b/biology/Botanique/Polygonum/Polygonum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polygonum est un genre de plantes à fleurs de la famille des Polygonaceae. Il comprend plus d'une centaine d'espèces réparties dans le monde entier. Polygonum aviculare est l'espèce type[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygonum est un genre de plantes à fleurs de la famille des Polygonaceae. Il comprend plus d'une centaine d'espèces réparties dans le monde entier. Polygonum aviculare est l'espèce type.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (29 mai 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (29 mai 2021) :
 Polygonum acerosum Ledeb. ex Meisn.
 Polygonum acetosum Eichw.
 Polygonum acetosum M.Bieb.
@@ -878,9 +892,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres suivants sont synonymes de Polygonum[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres suivants sont synonymes de Polygonum :
 Ampelygonum Lindl.
 Asicaria Neck.
 Avicularia (Meisn.) Börner
